--- a/results/[12_moderate_climate]_#_fix_cost.xlsx
+++ b/results/[12_moderate_climate]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.438409379980164</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8685083630681</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.113977708736</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>5.471820425690695</v>
+        <v>7070.228218264912</v>
       </c>
       <c r="O2" t="n">
-        <v>7.672359897147525</v>
+        <v>6993.478371476022</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.076683804611164</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.51626430546461</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52.5371909617916</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>89.10456262881476</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>14.59598670156766</v>
+        <v>9022.5600255922</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58793936873506</v>
+        <v>9723.120256756203</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.64788109164201</v>
+        <v>13031.04653826744</v>
       </c>
       <c r="O2" t="n">
-        <v>29.62186025579989</v>
+        <v>12858.90853139509</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.64788109164201</v>
+        <v>13148.52234297407</v>
       </c>
       <c r="O2" t="n">
-        <v>30.71107308865572</v>
+        <v>12858.90853139509</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.64788109164201</v>
+        <v>13597.36669969182</v>
       </c>
       <c r="O2" t="n">
-        <v>31.65386493497338</v>
+        <v>14934.99104992778</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.64788109164201</v>
+        <v>13597.36669969182</v>
       </c>
       <c r="O2" t="n">
-        <v>31.65386493497338</v>
+        <v>14934.99104992778</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_fix_cost.xlsx
+++ b/results/[12_moderate_climate]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>967.3682972291219</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>229.9102676639999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10033.38940388162</v>
+        <v>24938.4345679256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18569.55929690686</v>
+        <v>13878.11577882601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15305.9456011968</v>
+        <v>44963.47497589202</v>
       </c>
       <c r="M2" t="n">
-        <v>5575.229380274401</v>
+        <v>10112.3794939365</v>
       </c>
       <c r="N2" t="n">
-        <v>5238.361859067238</v>
+        <v>6479.486808609299</v>
       </c>
       <c r="O2" t="n">
-        <v>3255.893961374868</v>
+        <v>6069.678009745778</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5198.476182705886</v>
+        <v>300.9804799738145</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>2946.312200738474</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>35595.7782283986</v>
+        <v>39741.37361765869</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>32095.12963035715</v>
+        <v>30652.64314713404</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83010.10184594821</v>
+        <v>48981.18077820299</v>
       </c>
       <c r="M2" t="n">
-        <v>22623.49796693163</v>
+        <v>15653.53789831508</v>
       </c>
       <c r="N2" t="n">
-        <v>16606.78494404068</v>
+        <v>8247.748710722188</v>
       </c>
       <c r="O2" t="n">
-        <v>8151.408894733888</v>
+        <v>7089.117894102894</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10043.68596278942</v>
+        <v>2135.626368860798</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>4546.031766517355</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89489.43234548657</v>
+        <v>50486.27234148944</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88951.78505410544</v>
+        <v>45851.45352390232</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131975.4538410106</v>
+        <v>48981.18077820299</v>
       </c>
       <c r="M2" t="n">
-        <v>56097.74199487198</v>
+        <v>21186.37833031913</v>
       </c>
       <c r="N2" t="n">
-        <v>25503.3416223476</v>
+        <v>12213.55262468385</v>
       </c>
       <c r="O2" t="n">
-        <v>23564.6756846461</v>
+        <v>11755.72356163593</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10043.68596278942</v>
+        <v>2135.626368860798</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>4546.031766517355</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89489.43234548657</v>
+        <v>50486.27234148944</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88951.78505410544</v>
+        <v>45851.45352390232</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131975.4538410106</v>
+        <v>48981.18077820299</v>
       </c>
       <c r="M2" t="n">
-        <v>56097.74199487198</v>
+        <v>21186.37833031913</v>
       </c>
       <c r="N2" t="n">
-        <v>25503.3416223476</v>
+        <v>12213.55262468385</v>
       </c>
       <c r="O2" t="n">
-        <v>23564.6756846461</v>
+        <v>11755.72356163593</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10043.68596278942</v>
+        <v>2135.626368860798</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>4546.031766517355</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89489.43234548657</v>
+        <v>50486.27234148944</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88951.78505410544</v>
+        <v>45851.45352390232</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131975.4538410106</v>
+        <v>48981.18077820299</v>
       </c>
       <c r="M2" t="n">
-        <v>56097.74199487198</v>
+        <v>21186.37833031913</v>
       </c>
       <c r="N2" t="n">
-        <v>25503.3416223476</v>
+        <v>12213.55262468385</v>
       </c>
       <c r="O2" t="n">
-        <v>23564.6756846461</v>
+        <v>11755.72356163593</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10043.68596278942</v>
+        <v>2135.626368860798</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>4546.031766517355</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89489.43234548657</v>
+        <v>50486.27234148944</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88951.78505410544</v>
+        <v>45851.45352390232</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131975.4538410106</v>
+        <v>48981.18077820299</v>
       </c>
       <c r="M2" t="n">
-        <v>56097.74199487198</v>
+        <v>21186.37833031913</v>
       </c>
       <c r="N2" t="n">
-        <v>25503.3416223476</v>
+        <v>12213.55262468385</v>
       </c>
       <c r="O2" t="n">
-        <v>23564.6756846461</v>
+        <v>11755.72356163593</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_fix_cost.xlsx
+++ b/results/[12_moderate_climate]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>229.9102676639999</v>
+        <v>171.5760994200636</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24938.4345679256</v>
+        <v>24934.85034426333</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13878.11577882601</v>
+        <v>13824.0852797177</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44963.47497589202</v>
+        <v>44888.31064232461</v>
       </c>
       <c r="M2" t="n">
-        <v>10112.3794939365</v>
+        <v>10143.48210067014</v>
       </c>
       <c r="N2" t="n">
-        <v>6479.486808609299</v>
+        <v>6580.049472725059</v>
       </c>
       <c r="O2" t="n">
-        <v>6069.678009745778</v>
+        <v>6228.372825494043</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>300.9804799738145</v>
+        <v>156.0164813693395</v>
       </c>
       <c r="B2" t="n">
-        <v>2946.312200738474</v>
+        <v>4345.342717056064</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>39741.37361765869</v>
+        <v>49450.08934438367</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>30652.64314713404</v>
+        <v>36366.62298578599</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48981.18077820299</v>
+        <v>60155.62092545049</v>
       </c>
       <c r="M2" t="n">
-        <v>15653.53789831508</v>
+        <v>19651.93071314361</v>
       </c>
       <c r="N2" t="n">
-        <v>8247.748710722188</v>
+        <v>9698.155543259065</v>
       </c>
       <c r="O2" t="n">
-        <v>7089.117894102894</v>
+        <v>8420.099660808859</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2135.626368860798</v>
+        <v>2203.990739448065</v>
       </c>
       <c r="B2" t="n">
-        <v>4546.031766517355</v>
+        <v>5832.521188296065</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50486.27234148944</v>
+        <v>59331.36467499162</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45851.45352390232</v>
+        <v>50792.52820104821</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48981.18077820299</v>
+        <v>60155.62092545049</v>
       </c>
       <c r="M2" t="n">
-        <v>21186.37833031913</v>
+        <v>25076.30937206811</v>
       </c>
       <c r="N2" t="n">
-        <v>12213.55262468385</v>
+        <v>14104.3092167411</v>
       </c>
       <c r="O2" t="n">
-        <v>11755.72356163593</v>
+        <v>13761.71908927637</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2135.626368860798</v>
+        <v>2203.990739448065</v>
       </c>
       <c r="B2" t="n">
-        <v>4546.031766517355</v>
+        <v>5832.521188296065</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50486.27234148944</v>
+        <v>59331.36467499162</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45851.45352390232</v>
+        <v>50792.52820104821</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48981.18077820299</v>
+        <v>60155.62092545049</v>
       </c>
       <c r="M2" t="n">
-        <v>21186.37833031913</v>
+        <v>25076.30937206811</v>
       </c>
       <c r="N2" t="n">
-        <v>12213.55262468385</v>
+        <v>14104.3092167411</v>
       </c>
       <c r="O2" t="n">
-        <v>11755.72356163593</v>
+        <v>13761.71908927637</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2135.626368860798</v>
+        <v>2203.990739448065</v>
       </c>
       <c r="B2" t="n">
-        <v>4546.031766517355</v>
+        <v>5832.521188296065</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50486.27234148944</v>
+        <v>59331.36467499162</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45851.45352390232</v>
+        <v>50792.52820104821</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48981.18077820299</v>
+        <v>60155.62092545049</v>
       </c>
       <c r="M2" t="n">
-        <v>21186.37833031913</v>
+        <v>25076.30937206811</v>
       </c>
       <c r="N2" t="n">
-        <v>12213.55262468385</v>
+        <v>14104.3092167411</v>
       </c>
       <c r="O2" t="n">
-        <v>11755.72356163593</v>
+        <v>13761.71908927637</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2135.626368860798</v>
+        <v>2203.990739448065</v>
       </c>
       <c r="B2" t="n">
-        <v>4546.031766517355</v>
+        <v>5832.521188296065</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50486.27234148944</v>
+        <v>59331.36467499162</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45851.45352390232</v>
+        <v>50792.52820104821</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48981.18077820299</v>
+        <v>60155.62092545049</v>
       </c>
       <c r="M2" t="n">
-        <v>21186.37833031913</v>
+        <v>25076.30937206811</v>
       </c>
       <c r="N2" t="n">
-        <v>12213.55262468385</v>
+        <v>14104.3092167411</v>
       </c>
       <c r="O2" t="n">
-        <v>11755.72356163593</v>
+        <v>13761.71908927637</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_fix_cost.xlsx
+++ b/results/[12_moderate_climate]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7070.228218264912</v>
+        <v>7153.547888286133</v>
       </c>
       <c r="O2" t="n">
-        <v>6993.478371476022</v>
+        <v>6979.915717962022</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9022.5600255922</v>
+        <v>10590.02577459623</v>
       </c>
       <c r="O2" t="n">
-        <v>9723.120256756203</v>
+        <v>12060.86370976613</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13031.04653826744</v>
+        <v>15126.81756077611</v>
       </c>
       <c r="O2" t="n">
-        <v>12858.90853139509</v>
+        <v>14758.74752539324</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13148.52234297407</v>
+        <v>15231.15204087026</v>
       </c>
       <c r="O2" t="n">
-        <v>12858.90853139509</v>
+        <v>14758.74752539324</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13597.36669969182</v>
+        <v>15766.2185758853</v>
       </c>
       <c r="O2" t="n">
-        <v>14934.99104992778</v>
+        <v>17093.22804714248</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13597.36669969182</v>
+        <v>15766.2185758853</v>
       </c>
       <c r="O2" t="n">
-        <v>14934.99104992778</v>
+        <v>17093.22804714248</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_fix_cost.xlsx
+++ b/results/[12_moderate_climate]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>967.3682972291219</v>
+        <v>4023.356911494581</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>41575.75389350583</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10033.38940388162</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7813.221199196399</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2280.850135912914</v>
       </c>
       <c r="I2" t="n">
-        <v>18569.55929690686</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15305.9456011968</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5575.229380274401</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5238.361859067238</v>
+        <v>2168.10224944099</v>
       </c>
       <c r="O2" t="n">
-        <v>3255.893961374868</v>
+        <v>1796.02881263526</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5198.476182705886</v>
+        <v>8496.218618828714</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>169255.9238330969</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>35595.7782283986</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14994.04504889615</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6669.851472847463</v>
       </c>
       <c r="I2" t="n">
-        <v>32095.12963035715</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83010.10184594821</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22623.49796693163</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16606.78494404068</v>
+        <v>7049.92271283925</v>
       </c>
       <c r="O2" t="n">
-        <v>8151.408894733888</v>
+        <v>5163.994590287918</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10043.68596278942</v>
+        <v>26795.98346160663</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>252673.7316607196</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89489.43234548657</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16360.31276660885</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10434.38775898203</v>
       </c>
       <c r="I2" t="n">
-        <v>88951.78505410544</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131975.4538410106</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>56097.74199487198</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25503.3416223476</v>
+        <v>12119.60033715456</v>
       </c>
       <c r="O2" t="n">
-        <v>23564.6756846461</v>
+        <v>8688.858670675694</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10043.68596278942</v>
+        <v>26795.98346160663</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>252673.7316607196</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89489.43234548657</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16360.31276660885</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10434.38775898203</v>
       </c>
       <c r="I2" t="n">
-        <v>88951.78505410544</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131975.4538410106</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>56097.74199487198</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25503.3416223476</v>
+        <v>12119.60033715456</v>
       </c>
       <c r="O2" t="n">
-        <v>23564.6756846461</v>
+        <v>8688.858670675694</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10043.68596278942</v>
+        <v>26795.98346160663</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>252673.7316607196</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89489.43234548657</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16360.31276660885</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10434.38775898203</v>
       </c>
       <c r="I2" t="n">
-        <v>88951.78505410544</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131975.4538410106</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>56097.74199487198</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25503.3416223476</v>
+        <v>12119.60033715456</v>
       </c>
       <c r="O2" t="n">
-        <v>23564.6756846461</v>
+        <v>8688.858670675694</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10043.68596278942</v>
+        <v>26795.98346160663</v>
       </c>
       <c r="B2" t="n">
-        <v>771.4829826528552</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>252673.7316607196</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89489.43234548657</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16360.31276660885</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661856</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10434.38775898203</v>
       </c>
       <c r="I2" t="n">
-        <v>88951.78505410544</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131975.4538410106</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>56097.74199487198</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25503.3416223476</v>
+        <v>12119.60033715456</v>
       </c>
       <c r="O2" t="n">
-        <v>23564.6756846461</v>
+        <v>8688.858670675694</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_fix_cost.xlsx
+++ b/results/[12_moderate_climate]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3906.399109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>5.438409379980164</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48353.76274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8685083630681</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9433.134471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>31.113977708736</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.471820425690695</v>
+        <v>2367.015589279576</v>
       </c>
       <c r="O2" t="n">
-        <v>7.672359897147525</v>
+        <v>1995.587569594753</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.076683804611164</v>
+        <v>6991.052031681918</v>
       </c>
       <c r="B2" t="n">
-        <v>14.51626430546461</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197913.7502057619</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52.5371909617916</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16452.51445364119</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8194.52068131253</v>
       </c>
       <c r="I2" t="n">
-        <v>89.10456262881476</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14.59598670156766</v>
+        <v>7541.746478065597</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58793936873506</v>
+        <v>6256.977206111069</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.64788109164201</v>
+        <v>12885.19193306488</v>
       </c>
       <c r="O2" t="n">
-        <v>29.62186025579989</v>
+        <v>9262.499884703768</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.64788109164201</v>
+        <v>14043.04168550806</v>
       </c>
       <c r="O2" t="n">
-        <v>30.71107308865572</v>
+        <v>9262.499884703768</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.64788109164201</v>
+        <v>16875.11990740136</v>
       </c>
       <c r="O2" t="n">
-        <v>31.65386493497338</v>
+        <v>10094.92752559213</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.64788109164201</v>
+        <v>16875.11990740136</v>
       </c>
       <c r="O2" t="n">
-        <v>31.65386493497338</v>
+        <v>10094.92752559213</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_fix_cost.xlsx
+++ b/results/[12_moderate_climate]_#_fix_cost.xlsx
@@ -559,7 +559,7 @@
         <v>2168.10224944099</v>
       </c>
       <c r="O2" t="n">
-        <v>1796.02881263526</v>
+        <v>1796.028812635261</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7049.92271283925</v>
+        <v>7049.922712839263</v>
       </c>
       <c r="O2" t="n">
-        <v>5163.994590287918</v>
+        <v>5163.994590287919</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10434.38775898203</v>
+        <v>10434.38775898201</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12119.60033715456</v>
+        <v>12119.60033715454</v>
       </c>
       <c r="O2" t="n">
-        <v>8688.858670675694</v>
+        <v>8688.858670675712</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10434.38775898203</v>
+        <v>10434.38775898201</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12119.60033715456</v>
+        <v>12119.60033715454</v>
       </c>
       <c r="O2" t="n">
-        <v>8688.858670675694</v>
+        <v>8688.858670675712</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10434.38775898203</v>
+        <v>10434.38775898201</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12119.60033715456</v>
+        <v>12119.60033715454</v>
       </c>
       <c r="O2" t="n">
-        <v>8688.858670675694</v>
+        <v>8688.858670675712</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10434.38775898203</v>
+        <v>10434.38775898201</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12119.60033715456</v>
+        <v>12119.60033715454</v>
       </c>
       <c r="O2" t="n">
-        <v>8688.858670675694</v>
+        <v>8688.858670675712</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_fix_cost.xlsx
+++ b/results/[12_moderate_climate]_#_fix_cost.xlsx
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>156.0164813693395</v>
+        <v>156.016481369344</v>
       </c>
       <c r="B2" t="n">
         <v>4345.342717056064</v>
@@ -699,10 +699,10 @@
         <v>19651.93071314361</v>
       </c>
       <c r="N2" t="n">
-        <v>9698.155543259065</v>
+        <v>9698.155543259052</v>
       </c>
       <c r="O2" t="n">
-        <v>8420.099660808859</v>
+        <v>8420.099660808855</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2203.990739448065</v>
+        <v>2203.990739448093</v>
       </c>
       <c r="B2" t="n">
         <v>5832.521188296065</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59331.36467499162</v>
+        <v>59331.36467499159</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50792.52820104821</v>
+        <v>50792.52820104861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>25076.30937206811</v>
       </c>
       <c r="N2" t="n">
-        <v>14104.3092167411</v>
+        <v>14104.30921674107</v>
       </c>
       <c r="O2" t="n">
-        <v>13761.71908927637</v>
+        <v>13761.71908927607</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2203.990739448065</v>
+        <v>2203.990739448093</v>
       </c>
       <c r="B2" t="n">
         <v>5832.521188296065</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59331.36467499162</v>
+        <v>59331.36467499159</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50792.52820104821</v>
+        <v>50792.52820104861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>25076.30937206811</v>
       </c>
       <c r="N2" t="n">
-        <v>14104.3092167411</v>
+        <v>14104.30921674107</v>
       </c>
       <c r="O2" t="n">
-        <v>13761.71908927637</v>
+        <v>13761.71908927607</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2203.990739448065</v>
+        <v>2203.990739448093</v>
       </c>
       <c r="B2" t="n">
         <v>5832.521188296065</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59331.36467499162</v>
+        <v>59331.36467499159</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50792.52820104821</v>
+        <v>50792.52820104861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>25076.30937206811</v>
       </c>
       <c r="N2" t="n">
-        <v>14104.3092167411</v>
+        <v>14104.30921674107</v>
       </c>
       <c r="O2" t="n">
-        <v>13761.71908927637</v>
+        <v>13761.71908927607</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2203.990739448065</v>
+        <v>2203.990739448093</v>
       </c>
       <c r="B2" t="n">
         <v>5832.521188296065</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59331.36467499162</v>
+        <v>59331.36467499159</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50792.52820104821</v>
+        <v>50792.52820104861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>25076.30937206811</v>
       </c>
       <c r="N2" t="n">
-        <v>14104.3092167411</v>
+        <v>14104.30921674107</v>
       </c>
       <c r="O2" t="n">
-        <v>13761.71908927637</v>
+        <v>13761.71908927607</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_fix_cost.xlsx
+++ b/results/[12_moderate_climate]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7153.547888286133</v>
+        <v>7153.547888286129</v>
       </c>
       <c r="O2" t="n">
-        <v>6979.915717962022</v>
+        <v>6979.915717962018</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
         <v>10590.02577459623</v>
       </c>
       <c r="O2" t="n">
-        <v>12060.86370976613</v>
+        <v>12078.10456148364</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15126.81756077611</v>
+        <v>15114.04891232261</v>
       </c>
       <c r="O2" t="n">
-        <v>14758.74752539324</v>
+        <v>14759.64323227401</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15231.15204087026</v>
+        <v>15221.09667419122</v>
       </c>
       <c r="O2" t="n">
-        <v>14758.74752539324</v>
+        <v>14759.64323227401</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15766.2185758853</v>
+        <v>15765.37192348151</v>
       </c>
       <c r="O2" t="n">
-        <v>17093.22804714248</v>
+        <v>17094.12375402333</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15766.2185758853</v>
+        <v>15765.37192348151</v>
       </c>
       <c r="O2" t="n">
-        <v>17093.22804714248</v>
+        <v>17094.12375402333</v>
       </c>
     </row>
   </sheetData>
